--- a/MainExport.xlsx
+++ b/MainExport.xlsx
@@ -606,16 +606,16 @@
         <v>0.3786947411314784</v>
       </c>
       <c r="AC2">
-        <v>22.43107238901592</v>
+        <v>24.28717948717949</v>
       </c>
       <c r="AD2">
-        <v>0.0007430705963181164</v>
+        <v>0.0006862826679795976</v>
       </c>
       <c r="AE2">
-        <v>22.65086357004868</v>
+        <v>24.28717948717949</v>
       </c>
       <c r="AF2">
-        <v>0.002165474362488785</v>
+        <v>0.002019578451876787</v>
       </c>
     </row>
     <row r="3">
@@ -698,16 +698,16 @@
         <v>0.3458227560731174</v>
       </c>
       <c r="AC3">
-        <v>22.42837520049831</v>
+        <v>24.46769230769231</v>
       </c>
       <c r="AD3">
-        <v>0.0006786511572832976</v>
+        <v>0.000622087387498203</v>
       </c>
       <c r="AE3">
-        <v>22.86658674402198</v>
+        <v>24.46769230769231</v>
       </c>
       <c r="AF3">
-        <v>0.003989617546382379</v>
+        <v>0.003728546793566784</v>
       </c>
     </row>
     <row r="4">
@@ -790,16 +790,16 @@
         <v>0.3414025325233945</v>
       </c>
       <c r="AC4">
-        <v>22.4280125154891</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AD4">
-        <v>0.0006699876351552408</v>
+        <v>0.0006114703167705579</v>
       </c>
       <c r="AE4">
-        <v>23.09631223354729</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AF4">
-        <v>0.00589469848237783</v>
+        <v>0.005540156584091208</v>
       </c>
     </row>
     <row r="5">
@@ -882,16 +882,16 @@
         <v>0.3532592612014353</v>
       </c>
       <c r="AC5">
-        <v>22.42898537527807</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="AD5">
-        <v>0.0006932258799213385</v>
+        <v>0.0006316518456023738</v>
       </c>
       <c r="AE5">
-        <v>23.18639379693195</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="AF5">
-        <v>0.006631428381988435</v>
+        <v>0.006246455714725489</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         <v>0.3327156415770408</v>
       </c>
       <c r="AC6">
-        <v>22.42729974494992</v>
+        <v>24.34461538461538</v>
       </c>
       <c r="AD6">
-        <v>0.0006529607404774343</v>
+        <v>0.0006015353299697749</v>
       </c>
       <c r="AE6">
-        <v>22.80714983165273</v>
+        <v>24.34461538461538</v>
       </c>
       <c r="AF6">
-        <v>0.003490466354566149</v>
+        <v>0.003270028623300453</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0.3448246410780186</v>
       </c>
       <c r="AC7">
-        <v>22.42829330388333</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="AD7">
-        <v>0.0006766949025844996</v>
+        <v>0.0006186322725166268</v>
       </c>
       <c r="AE7">
-        <v>23.0761693191959</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="AF7">
-        <v>0.005729173260878483</v>
+        <v>0.005388887454906585</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1158,16 @@
         <v>0.345460802283686</v>
       </c>
       <c r="AC8">
-        <v>22.42834550172584</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AD8">
-        <v>0.0006779417478897021</v>
+        <v>0.0006187388964073998</v>
       </c>
       <c r="AE8">
-        <v>23.41355219527273</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AF8">
-        <v>0.008464065645516591</v>
+        <v>0.008064252784062169</v>
       </c>
     </row>
     <row r="9">
@@ -1250,16 +1250,16 @@
         <v>0.3395708269829386</v>
       </c>
       <c r="AC9">
-        <v>22.42786222170117</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AD9">
-        <v>0.0006663974582635636</v>
+        <v>0.0006047569563145908</v>
       </c>
       <c r="AE9">
-        <v>23.68805592307378</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AF9">
-        <v>0.01063176850073445</v>
+        <v>0.01019047886107269</v>
       </c>
     </row>
     <row r="10">
@@ -1342,16 +1342,16 @@
         <v>0.3480712568862519</v>
       </c>
       <c r="AC10">
-        <v>22.42855969287272</v>
+        <v>24.3774358974359</v>
       </c>
       <c r="AD10">
-        <v>0.0006830580523393946</v>
+        <v>0.0006284503573324092</v>
       </c>
       <c r="AE10">
-        <v>22.80849172022647</v>
+        <v>24.3774358974359</v>
       </c>
       <c r="AF10">
-        <v>0.003501764238336881</v>
+        <v>0.003276388910315743</v>
       </c>
     </row>
     <row r="11">
@@ -1434,16 +1434,16 @@
         <v>0.3343718543711057</v>
       </c>
       <c r="AC11">
-        <v>22.42743563933301</v>
+        <v>24.55794871794872</v>
       </c>
       <c r="AD11">
-        <v>0.0006562071132412144</v>
+        <v>0.0005992781794325342</v>
       </c>
       <c r="AE11">
-        <v>23.03363728570664</v>
+        <v>24.55794871794872</v>
       </c>
       <c r="AF11">
-        <v>0.005378713518672779</v>
+        <v>0.005044856867963365</v>
       </c>
     </row>
     <row r="12">
@@ -1526,16 +1526,16 @@
         <v>0.3398450343991745</v>
       </c>
       <c r="AC12">
-        <v>22.42788472077121</v>
+        <v>24.62358974358975</v>
       </c>
       <c r="AD12">
-        <v>0.0006669349129564689</v>
+        <v>0.0006074637979191992</v>
       </c>
       <c r="AE12">
-        <v>23.28153661395885</v>
+        <v>24.62358974358975</v>
       </c>
       <c r="AF12">
-        <v>0.007403360992091299</v>
+        <v>0.006999857526809191</v>
       </c>
     </row>
     <row r="13">
@@ -1618,16 +1618,16 @@
         <v>0.3453511193171916</v>
       </c>
       <c r="AC13">
-        <v>22.42833650209782</v>
+        <v>24.68923076923077</v>
       </c>
       <c r="AD13">
-        <v>0.0006777267749752693</v>
+        <v>0.000615664550576861</v>
       </c>
       <c r="AE13">
-        <v>23.65992002026143</v>
+        <v>24.68923076923077</v>
       </c>
       <c r="AF13">
-        <v>0.01041189828941257</v>
+        <v>0.009977819199357477</v>
       </c>
     </row>
     <row r="14">
@@ -1710,16 +1710,16 @@
         <v>0.3361596867249638</v>
       </c>
       <c r="AC14">
-        <v>22.42758233326974</v>
+        <v>24.40205128205128</v>
       </c>
       <c r="AD14">
-        <v>0.0006597114317384148</v>
+        <v>0.0006063315038762922</v>
       </c>
       <c r="AE14">
-        <v>23.7107659286097</v>
+        <v>24.40205128205128</v>
       </c>
       <c r="AF14">
-        <v>0.01080885704493908</v>
+        <v>0.01050265309199082</v>
       </c>
     </row>
     <row r="15">
@@ -1802,16 +1802,16 @@
         <v>0.3436400650398795</v>
       </c>
       <c r="AC15">
-        <v>22.42819610790071</v>
+        <v>24.45948717948718</v>
       </c>
       <c r="AD15">
-        <v>0.0006743731751719982</v>
+        <v>0.0006183683947122872</v>
       </c>
       <c r="AE15">
-        <v>24.80319449933844</v>
+        <v>24.45948717948718</v>
       </c>
       <c r="AF15">
-        <v>0.0189444287710939</v>
+        <v>0.0192106379025955</v>
       </c>
     </row>
     <row r="16">
@@ -1894,16 +1894,16 @@
         <v>0.3420057888391135</v>
       </c>
       <c r="AC16">
-        <v>22.42806201344321</v>
+        <v>24.47589743589744</v>
       </c>
       <c r="AD16">
-        <v>0.0006711700182094228</v>
+        <v>0.0006150149480479225</v>
       </c>
       <c r="AE16">
-        <v>26.46133120411412</v>
+        <v>24.47589743589744</v>
       </c>
       <c r="AF16">
-        <v>0.03000937368044987</v>
+        <v>0.03244367150443131</v>
       </c>
     </row>
     <row r="17">
@@ -1986,16 +1986,16 @@
         <v>0.343376825920293</v>
       </c>
       <c r="AC17">
-        <v>22.42817450879346</v>
+        <v>24.5825641025641</v>
       </c>
       <c r="AD17">
-        <v>0.0006738572330142268</v>
+        <v>0.0006148011067112141</v>
       </c>
       <c r="AE17">
-        <v>27.95192145186266</v>
+        <v>24.5825641025641</v>
       </c>
       <c r="AF17">
-        <v>0.038835764432815</v>
+        <v>0.0441587066515921</v>
       </c>
     </row>
     <row r="18">
@@ -2078,16 +2078,16 @@
         <v>0.3397134148393813</v>
       </c>
       <c r="AC18">
-        <v>22.42787392121759</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AD18">
-        <v>0.0006666769348384489</v>
+        <v>0.0005974730567509022</v>
       </c>
       <c r="AE18">
-        <v>22.75763122613283</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AF18">
-        <v>0.003072618126004724</v>
+        <v>0.002794154608815088</v>
       </c>
     </row>
     <row r="19">
@@ -2170,16 +2170,16 @@
         <v>0.3374978189161951</v>
       </c>
       <c r="AC19">
-        <v>22.42769212873159</v>
+        <v>24.96820512820513</v>
       </c>
       <c r="AD19">
-        <v>0.000662334265893881</v>
+        <v>0.0005949418040064482</v>
       </c>
       <c r="AE19">
-        <v>23.26111657044549</v>
+        <v>24.96820512820513</v>
       </c>
       <c r="AF19">
-        <v>0.007238217031829464</v>
+        <v>0.00674333654642129</v>
       </c>
     </row>
     <row r="20">
@@ -2262,16 +2262,16 @@
         <v>0.345460802283686</v>
       </c>
       <c r="AC20">
-        <v>22.42834550172584</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AD20">
-        <v>0.0006779417478897021</v>
+        <v>0.0006101820858545151</v>
       </c>
       <c r="AE20">
-        <v>23.76941521072915</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AF20">
-        <v>0.01126462821559857</v>
+        <v>0.01074496973245724</v>
       </c>
     </row>
     <row r="21">
@@ -2354,16 +2354,16 @@
         <v>0.3530289269717972</v>
       </c>
       <c r="AC21">
-        <v>22.42896647605922</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AD21">
-        <v>0.0006927744623597453</v>
+        <v>0.0006221156295968818</v>
       </c>
       <c r="AE21">
-        <v>24.17503020363134</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AF21">
-        <v>0.01435618129743103</v>
+        <v>0.01389555636343411</v>
       </c>
     </row>
     <row r="22">
@@ -2446,16 +2446,16 @@
         <v>0.340185051595307</v>
       </c>
       <c r="AC22">
-        <v>22.42791261961808</v>
+        <v>24.74666666666667</v>
       </c>
       <c r="AD22">
-        <v>0.0006676013552781005</v>
+        <v>0.0006050473408236466</v>
       </c>
       <c r="AE22">
-        <v>23.43133221887472</v>
+        <v>24.74666666666667</v>
       </c>
       <c r="AF22">
-        <v>0.008606009395363727</v>
+        <v>0.008148582915740488</v>
       </c>
     </row>
     <row r="23">
@@ -2538,16 +2538,16 @@
         <v>0.3243248946402219</v>
       </c>
       <c r="AC23">
-        <v>22.42661127340637</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AD23">
-        <v>0.0006365132805249951</v>
+        <v>0.0005770300586599236</v>
       </c>
       <c r="AE23">
-        <v>25.07543743660765</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AF23">
-        <v>0.0208615462000444</v>
+        <v>0.02114571254792125</v>
       </c>
     </row>
     <row r="24">
@@ -2630,16 +2630,16 @@
         <v>0.3291399768693246</v>
       </c>
       <c r="AC24">
-        <v>22.42700635707646</v>
+        <v>24.79589743589743</v>
       </c>
       <c r="AD24">
-        <v>0.0006459518810166742</v>
+        <v>0.0005842404768521795</v>
       </c>
       <c r="AE24">
-        <v>26.3750419345248</v>
+        <v>24.79589743589743</v>
       </c>
       <c r="AF24">
-        <v>0.0294678715421785</v>
+        <v>0.03134455406001796</v>
       </c>
     </row>
     <row r="25">
@@ -2722,16 +2722,16 @@
         <v>0.3330446904765239</v>
       </c>
       <c r="AC25">
-        <v>22.42732674383397</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AD25">
-        <v>0.000653605718330379</v>
+        <v>0.0005898053516617646</v>
       </c>
       <c r="AE25">
-        <v>28.57127595736828</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AF25">
-        <v>0.04223237869368041</v>
+        <v>0.04855014535916941</v>
       </c>
     </row>
     <row r="26">
@@ -2814,16 +2814,16 @@
         <v>0.328624466926801</v>
       </c>
       <c r="AC26">
-        <v>22.42696405882477</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AD26">
-        <v>0.0006449413861536359</v>
+        <v>0.0005846797410917625</v>
       </c>
       <c r="AE26">
-        <v>22.80500572708383</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AF26">
-        <v>0.003472411541697179</v>
+        <v>0.003201022220887904</v>
       </c>
     </row>
     <row r="27">
@@ -2906,16 +2906,16 @@
         <v>0.3421483766955561</v>
       </c>
       <c r="AC27">
-        <v>22.42807371295963</v>
+        <v>24.86974358974359</v>
       </c>
       <c r="AD27">
-        <v>0.0006714494898051128</v>
+        <v>0.000605527700659075</v>
       </c>
       <c r="AE27">
-        <v>23.12093297172626</v>
+        <v>24.86974358974359</v>
       </c>
       <c r="AF27">
-        <v>0.006096628695498177</v>
+        <v>0.005667921058914687</v>
       </c>
     </row>
     <row r="28">
@@ -2998,16 +2998,16 @@
         <v>0.3363461477680043</v>
       </c>
       <c r="AC28">
-        <v>22.42759763263737</v>
+        <v>24.88615384615385</v>
       </c>
       <c r="AD28">
-        <v>0.0006600769101688253</v>
+        <v>0.0005948665044578147</v>
       </c>
       <c r="AE28">
-        <v>23.49164427596597</v>
+        <v>24.88615384615385</v>
       </c>
       <c r="AF28">
-        <v>0.009085899698392271</v>
+        <v>0.008576766219530756</v>
       </c>
     </row>
     <row r="29">
@@ -3090,16 +3090,16 @@
         <v>0.3392746829734039</v>
       </c>
       <c r="AC29">
-        <v>22.42783792270551</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AD29">
-        <v>0.0006658170059840536</v>
+        <v>0.0005996505353781553</v>
       </c>
       <c r="AE29">
-        <v>23.84122083516935</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AF29">
-        <v>0.01181958569152915</v>
+        <v>0.01131583685484578</v>
       </c>
     </row>
     <row r="30">
@@ -3182,16 +3182,16 @@
         <v>0.3384849656146444</v>
       </c>
       <c r="AC30">
-        <v>22.42777312538377</v>
+        <v>24.70564102564103</v>
       </c>
       <c r="AD30">
-        <v>0.000664269127089631</v>
+        <v>0.0006030233039126903</v>
       </c>
       <c r="AE30">
-        <v>22.77390891796205</v>
+        <v>24.70564102564103</v>
       </c>
       <c r="AF30">
-        <v>0.003210173137526608</v>
+        <v>0.002959169955114433</v>
       </c>
     </row>
     <row r="31">
@@ -3274,16 +3274,16 @@
         <v>0.3432781112504481</v>
       </c>
       <c r="AC31">
-        <v>22.42816640912825</v>
+        <v>24.73025641025641</v>
       </c>
       <c r="AD31">
-        <v>0.0006736637544488636</v>
+        <v>0.0006109537458055239</v>
       </c>
       <c r="AE31">
-        <v>22.98861108975968</v>
+        <v>24.73025641025641</v>
       </c>
       <c r="AF31">
-        <v>0.005006289029511255</v>
+        <v>0.004653717680607397</v>
       </c>
     </row>
     <row r="32">
@@ -3366,16 +3366,16 @@
         <v>0.3488061327617641</v>
       </c>
       <c r="AC32">
-        <v>22.42861999038045</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AD32">
-        <v>0.0006844983389063104</v>
+        <v>0.0006193538687186311</v>
       </c>
       <c r="AE32">
-        <v>23.40992034467643</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AF32">
-        <v>0.008435044873505495</v>
+        <v>0.007966200570081161</v>
       </c>
     </row>
     <row r="33">
@@ -3458,16 +3458,16 @@
         <v>0.3391211268203118</v>
       </c>
       <c r="AC33">
-        <v>22.42782532322628</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD33">
-        <v>0.0006655160302328438</v>
+        <v>0.0006013605514038212</v>
       </c>
       <c r="AE33">
-        <v>23.38782294044589</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF33">
-        <v>0.008258278457062519</v>
+        <v>0.007781594028430164</v>
       </c>
     </row>
     <row r="34">
@@ -3550,16 +3550,16 @@
         <v>0.4233028036047365</v>
       </c>
       <c r="AC34">
-        <v>22.43473253773167</v>
+        <v>24.33641025641026</v>
       </c>
       <c r="AD34">
-        <v>0.0008304645293419059</v>
+        <v>0.0007655709860886885</v>
       </c>
       <c r="AE34">
-        <v>22.77530914951725</v>
+        <v>24.33641025641026</v>
       </c>
       <c r="AF34">
-        <v>0.003221996642297548</v>
+        <v>0.003015316097726625</v>
       </c>
     </row>
     <row r="35">
@@ -3642,16 +3642,16 @@
         <v>0.3320027022948275</v>
       </c>
       <c r="AC35">
-        <v>22.42724124736778</v>
+        <v>24.56615384615385</v>
       </c>
       <c r="AD35">
-        <v>0.0006515632831353966</v>
+        <v>0.0005948333235360064</v>
       </c>
       <c r="AE35">
-        <v>23.04917110452216</v>
+        <v>24.56615384615385</v>
       </c>
       <c r="AF35">
-        <v>0.005506860573779265</v>
+        <v>0.005166806835480992</v>
       </c>
     </row>
     <row r="36">
@@ -3734,16 +3734,16 @@
         <v>0.3221641402002829</v>
       </c>
       <c r="AC36">
-        <v>22.42643398073438</v>
+        <v>24.59076923076923</v>
       </c>
       <c r="AD36">
-        <v>0.0006322776273283781</v>
+        <v>0.0005766282597224671</v>
       </c>
       <c r="AE36">
-        <v>23.35119813383015</v>
+        <v>24.59076923076923</v>
       </c>
       <c r="AF36">
-        <v>0.007964564486284157</v>
+        <v>0.007563086848709806</v>
       </c>
     </row>
     <row r="37">
@@ -3826,16 +3826,16 @@
         <v>0.331136206859522</v>
       </c>
       <c r="AC37">
-        <v>22.42717015030642</v>
+        <v>24.91076923076923</v>
       </c>
       <c r="AD37">
-        <v>0.000649864825166802</v>
+        <v>0.0005850734224101253</v>
       </c>
       <c r="AE37">
-        <v>23.60625906305739</v>
+        <v>24.91076923076923</v>
       </c>
       <c r="AF37">
-        <v>0.009991107519679941</v>
+        <v>0.00946790001751955</v>
       </c>
     </row>
     <row r="38">
@@ -3918,16 +3918,16 @@
         <v>0.3309387775198321</v>
       </c>
       <c r="AC38">
-        <v>22.42715395097598</v>
+        <v>24.32820512820513</v>
       </c>
       <c r="AD38">
-        <v>0.0006494778332372399</v>
+        <v>0.0005987264279053095</v>
       </c>
       <c r="AE38">
-        <v>22.98305392077497</v>
+        <v>24.32820512820513</v>
       </c>
       <c r="AF38">
-        <v>0.004960222938146056</v>
+        <v>0.004685963088756903</v>
       </c>
     </row>
     <row r="39">
@@ -4010,16 +4010,16 @@
         <v>0.3501113600630471</v>
       </c>
       <c r="AC39">
-        <v>22.42872708595389</v>
+        <v>24.48410256410256</v>
       </c>
       <c r="AD39">
-        <v>0.0006870564407315572</v>
+        <v>0.0006293798746133369</v>
       </c>
       <c r="AE39">
-        <v>23.48041325203362</v>
+        <v>24.48410256410256</v>
       </c>
       <c r="AF39">
-        <v>0.008996723607415821</v>
+        <v>0.008627916325026764</v>
       </c>
     </row>
     <row r="40">
@@ -4102,16 +4102,16 @@
         <v>0.3636352698318022</v>
       </c>
       <c r="AC40">
-        <v>22.42983674008876</v>
+        <v>24.47589743589744</v>
       </c>
       <c r="AD40">
-        <v>0.0007135603772706553</v>
+        <v>0.0006539103543922862</v>
       </c>
       <c r="AE40">
-        <v>24.01487871950512</v>
+        <v>24.47589743589744</v>
       </c>
       <c r="AF40">
-        <v>0.01314800092769098</v>
+        <v>0.01290035017140373</v>
       </c>
     </row>
     <row r="41">
@@ -4194,16 +4194,16 @@
         <v>0.373506736816295</v>
       </c>
       <c r="AC41">
-        <v>22.43064670661057</v>
+        <v>24.59897435897436</v>
       </c>
       <c r="AD41">
-        <v>0.0007329046607197239</v>
+        <v>0.0006683012581878168</v>
       </c>
       <c r="AE41">
-        <v>24.49238685131971</v>
+        <v>24.59897435897436</v>
       </c>
       <c r="AF41">
-        <v>0.0167036385622649</v>
+        <v>0.01663126159332569</v>
       </c>
     </row>
     <row r="42">
@@ -4286,16 +4286,16 @@
         <v>0.3317284948785915</v>
       </c>
       <c r="AC42">
-        <v>22.42721874829773</v>
+        <v>24.32</v>
       </c>
       <c r="AD42">
-        <v>0.0006510257976011648</v>
+        <v>0.0006003576469402273</v>
       </c>
       <c r="AE42">
-        <v>22.68503797144283</v>
+        <v>24.32</v>
       </c>
       <c r="AF42">
-        <v>0.002456763890517579</v>
+        <v>0.002291602884180136</v>
       </c>
     </row>
     <row r="43">
@@ -4378,16 +4378,16 @@
         <v>0.3357977329355324</v>
       </c>
       <c r="AC43">
-        <v>22.42755263449727</v>
+        <v>24.50871794871795</v>
       </c>
       <c r="AD43">
-        <v>0.0006590019721853535</v>
+        <v>0.0006030426172576545</v>
       </c>
       <c r="AE43">
-        <v>22.78051626061316</v>
+        <v>24.50871794871795</v>
       </c>
       <c r="AF43">
-        <v>0.00326595254783709</v>
+        <v>0.003035657975993219</v>
       </c>
     </row>
     <row r="44">
@@ -4470,16 +4470,16 @@
         <v>0.3267598564963968</v>
       </c>
       <c r="AC44">
-        <v>22.42681106514842</v>
+        <v>24.5251282051282</v>
       </c>
       <c r="AD44">
-        <v>0.000641286372906679</v>
+        <v>0.0005864192922271913</v>
       </c>
       <c r="AE44">
-        <v>22.85854999832494</v>
+        <v>24.5251282051282</v>
       </c>
       <c r="AF44">
-        <v>0.003922276720895655</v>
+        <v>0.00365574270527613</v>
       </c>
     </row>
     <row r="45">
@@ -4562,16 +4562,16 @@
         <v>0.3319149559216319</v>
       </c>
       <c r="AC45">
-        <v>22.42723404766536</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AD45">
-        <v>0.0006513912878817738</v>
+        <v>0.0005905340898916394</v>
       </c>
       <c r="AE45">
-        <v>22.9294513065524</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AF45">
-        <v>0.004514738227664234</v>
+        <v>0.004184596127455692</v>
       </c>
     </row>
     <row r="46">
@@ -4654,16 +4654,16 @@
         <v>0.4082981737883074</v>
       </c>
       <c r="AC46">
-        <v>22.43350138861853</v>
+        <v>24.46769230769231</v>
       </c>
       <c r="AD46">
-        <v>0.0008010713757878177</v>
+        <v>0.0007344720374576877</v>
       </c>
       <c r="AE46">
-        <v>22.63340443284476</v>
+        <v>24.46769230769231</v>
       </c>
       <c r="AF46">
-        <v>0.002016319862560754</v>
+        <v>0.001865160896312568</v>
       </c>
     </row>
     <row r="47">
@@ -4746,16 +4746,16 @@
         <v>0.3745706615912903</v>
       </c>
       <c r="AC47">
-        <v>22.43073400300236</v>
+        <v>24.60717948717949</v>
       </c>
       <c r="AD47">
-        <v>0.0007349894612040938</v>
+        <v>0.0006699814217988111</v>
       </c>
       <c r="AE47">
-        <v>25.4824672468104</v>
+        <v>24.60717948717949</v>
       </c>
       <c r="AF47">
-        <v>0.02365141933793712</v>
+        <v>0.02449271030568822</v>
       </c>
     </row>
     <row r="48">
@@ -4838,16 +4838,16 @@
         <v>0.3697226744722394</v>
       </c>
       <c r="AC48">
-        <v>22.43033621944388</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AD48">
-        <v>0.0007254895171885482</v>
+        <v>0.0006588932495583728</v>
       </c>
       <c r="AE48">
-        <v>26.73786235052113</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AF48">
-        <v>0.03172117719138306</v>
+        <v>0.03434188362151987</v>
       </c>
     </row>
     <row r="49">
@@ -4930,16 +4930,16 @@
         <v>0.3492229280344427</v>
       </c>
       <c r="AC49">
-        <v>22.42865418896693</v>
+        <v>24.70564102564103</v>
       </c>
       <c r="AD49">
-        <v>0.0006853152144130472</v>
+        <v>0.0006221533753589032</v>
       </c>
       <c r="AE49">
-        <v>28.45813433055889</v>
+        <v>24.70564102564103</v>
       </c>
       <c r="AF49">
-        <v>0.04162293359511071</v>
+        <v>0.04794496262016577</v>
       </c>
     </row>
     <row r="50">
@@ -5022,16 +5022,16 @@
         <v>0.340437322418244</v>
       </c>
       <c r="AC50">
-        <v>22.42793331876252</v>
+        <v>24.41846153846154</v>
       </c>
       <c r="AD50">
-        <v>0.0006680958114130574</v>
+        <v>0.000613634412852557</v>
       </c>
       <c r="AE50">
-        <v>22.83182891281317</v>
+        <v>24.41846153846154</v>
       </c>
       <c r="AF50">
-        <v>0.003698036791560073</v>
+        <v>0.003457750325719649</v>
       </c>
     </row>
     <row r="51">
@@ -5114,16 +5114,16 @@
         <v>0.3377829946290804</v>
       </c>
       <c r="AC51">
-        <v>22.42771552776444</v>
+        <v>24.65641025641026</v>
       </c>
       <c r="AD51">
-        <v>0.0006628932272303653</v>
+        <v>0.0006029742598778799</v>
       </c>
       <c r="AE51">
-        <v>23.47398093832691</v>
+        <v>24.65641025641026</v>
       </c>
       <c r="AF51">
-        <v>0.008945611596982355</v>
+        <v>0.008516613486127662</v>
       </c>
     </row>
     <row r="52">
@@ -5206,16 +5206,16 @@
         <v>0.3959259351677432</v>
       </c>
       <c r="AC52">
-        <v>22.43248623057786</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AD52">
-        <v>0.0007768324888892239</v>
+        <v>0.0007051223027768602</v>
       </c>
       <c r="AE52">
-        <v>23.36416486146113</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AF52">
-        <v>0.008068656926128206</v>
+        <v>0.007628008585110137</v>
       </c>
     </row>
     <row r="53">
@@ -5298,16 +5298,16 @@
         <v>0.3582827410668772</v>
       </c>
       <c r="AC53">
-        <v>22.42939755824139</v>
+        <v>24.75487179487179</v>
       </c>
       <c r="AD53">
-        <v>0.0007030708927589209</v>
+        <v>0.0006370243682128189</v>
       </c>
       <c r="AE53">
-        <v>24.88961504063606</v>
+        <v>24.75487179487179</v>
       </c>
       <c r="AF53">
-        <v>0.01955754020347536</v>
+        <v>0.01966399385300415</v>
       </c>
     </row>
     <row r="54">
@@ -5390,16 +5390,16 @@
         <v>0.3239848774440894</v>
       </c>
       <c r="AC54">
-        <v>22.42658337455951</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD54">
-        <v>0.0006358467608579379</v>
+        <v>0.0005745195717325846</v>
       </c>
       <c r="AE54">
-        <v>22.75227825758325</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF54">
-        <v>0.003027339735973135</v>
+        <v>0.002775078683957516</v>
       </c>
     </row>
     <row r="55">
@@ -5482,16 +5482,16 @@
         <v>0.3391430634136106</v>
       </c>
       <c r="AC55">
-        <v>22.42782712315188</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD55">
-        <v>0.0006655590267894348</v>
+        <v>0.0006013994513743591</v>
       </c>
       <c r="AE55">
-        <v>22.97256676985632</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF55">
-        <v>0.004873229100446366</v>
+        <v>0.004510405635224824</v>
       </c>
     </row>
     <row r="56">
@@ -5574,16 +5574,16 @@
         <v>0.3293703110989627</v>
       </c>
       <c r="AC56">
-        <v>22.4270252562953</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AD56">
-        <v>0.0006464033774894173</v>
+        <v>0.0005815702045297893</v>
       </c>
       <c r="AE56">
-        <v>23.1970997340311</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AF56">
-        <v>0.006718606205188163</v>
+        <v>0.006252298953260544</v>
       </c>
     </row>
     <row r="57">
@@ -5666,16 +5666,16 @@
         <v>0.3327595147636386</v>
       </c>
       <c r="AC57">
-        <v>22.42730334480112</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AD57">
-        <v>0.0006530467376142169</v>
+        <v>0.0005877479976430942</v>
       </c>
       <c r="AE57">
-        <v>23.36377104633623</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AF57">
-        <v>0.008065497214718052</v>
+        <v>0.007562126257081279</v>
       </c>
     </row>
     <row r="58">
@@ -5758,16 +5758,16 @@
         <v>0.3339440908017777</v>
       </c>
       <c r="AC58">
-        <v>22.42740054078374</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AD58">
-        <v>0.000655368649871886</v>
+        <v>0.0005902289881480933</v>
       </c>
       <c r="AE58">
-        <v>22.72560092930758</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AF58">
-        <v>0.002801369990172311</v>
+        <v>0.002556476360819374</v>
       </c>
     </row>
     <row r="59">
@@ -5850,16 +5850,16 @@
         <v>0.3534128173545274</v>
       </c>
       <c r="AC59">
-        <v>22.42899797475729</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AD59">
-        <v>0.0006935268245397615</v>
+        <v>0.0006287825020508339</v>
       </c>
       <c r="AE59">
-        <v>22.93836319697145</v>
+        <v>24.73846153846154</v>
       </c>
       <c r="AF59">
-        <v>0.004588948150678957</v>
+        <v>0.004255032561693024</v>
       </c>
     </row>
     <row r="60">
@@ -5942,16 +5942,16 @@
         <v>0.3622861693439215</v>
       </c>
       <c r="AC60">
-        <v>22.42972604466411</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AD60">
-        <v>0.0007109165500171916</v>
+        <v>0.000643502560888484</v>
       </c>
       <c r="AE60">
-        <v>23.11563834615815</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AF60">
-        <v>0.006053240435165363</v>
+        <v>0.005646788236903267</v>
       </c>
     </row>
     <row r="61">
@@ -6034,16 +6034,16 @@
         <v>0.3906940576659619</v>
       </c>
       <c r="AC61">
-        <v>22.43205694832131</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AD61">
-        <v>0.0007665818740441679</v>
+        <v>0.0006916711240823806</v>
       </c>
       <c r="AE61">
-        <v>23.19094454948636</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AF61">
-        <v>0.00666849473068272</v>
+        <v>0.006220399102294133</v>
       </c>
     </row>
     <row r="62">
@@ -6126,16 +6126,16 @@
         <v>0.3373332944664536</v>
       </c>
       <c r="AC62">
-        <v>22.42767862928956</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AD62">
-        <v>0.0006620117876692086</v>
+        <v>0.0005962192311400464</v>
       </c>
       <c r="AE62">
-        <v>22.73121644127376</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AF62">
-        <v>0.002848980138478199</v>
+        <v>0.002600566909411947</v>
       </c>
     </row>
     <row r="63">
@@ -6218,16 +6218,16 @@
         <v>0.3421374083989068</v>
       </c>
       <c r="AC63">
-        <v>22.42807281299683</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AD63">
-        <v>0.0006714279920004113</v>
+        <v>0.0006041131087861152</v>
       </c>
       <c r="AE63">
-        <v>22.89316197208008</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AF63">
-        <v>0.004211957805095104</v>
+        <v>0.003868268862957493</v>
       </c>
     </row>
     <row r="64">
@@ -6310,16 +6310,16 @@
         <v>0.3532811977947342</v>
       </c>
       <c r="AC64">
-        <v>22.42898717520367</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AD64">
-        <v>0.0006932688720303854</v>
+        <v>0.0006250241455204483</v>
       </c>
       <c r="AE64">
-        <v>23.03144942390164</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AF64">
-        <v>0.005360650749857045</v>
+        <v>0.00496277076636377</v>
       </c>
     </row>
     <row r="65">
@@ -6402,16 +6402,16 @@
         <v>0.342773569604574</v>
       </c>
       <c r="AC65">
-        <v>22.42812501083935</v>
+        <v>24.96</v>
       </c>
       <c r="AD65">
-        <v>0.0006726748618212338</v>
+        <v>0.0006044405405679375</v>
       </c>
       <c r="AE65">
-        <v>23.16100001424855</v>
+        <v>24.96</v>
       </c>
       <c r="AF65">
-        <v>0.006424325990108243</v>
+        <v>0.005961290638959707</v>
       </c>
     </row>
     <row r="66">
@@ -6494,16 +6494,16 @@
         <v>0.4590594506818994</v>
       </c>
       <c r="AC66">
-        <v>22.43766641646621</v>
+        <v>24.82871794871795</v>
       </c>
       <c r="AD66">
-        <v>0.0009004966152578752</v>
+        <v>0.000813777123089693</v>
       </c>
       <c r="AE66">
-        <v>22.66986879626148</v>
+        <v>24.82871794871795</v>
       </c>
       <c r="AF66">
-        <v>0.00232757603765797</v>
+        <v>0.002125194039257792</v>
       </c>
     </row>
     <row r="67">
@@ -6586,16 +6586,16 @@
         <v>0.3621874546740766</v>
       </c>
       <c r="AC67">
-        <v>22.4297179449989</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AD67">
-        <v>0.0007107230982179696</v>
+        <v>0.0006403586710726016</v>
       </c>
       <c r="AE67">
-        <v>23.00787885938907</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AF67">
-        <v>0.005165836660649633</v>
+        <v>0.004774372548336655</v>
       </c>
     </row>
     <row r="68">
@@ -6678,16 +6678,16 @@
         <v>0.3574162456315718</v>
       </c>
       <c r="AC68">
-        <v>22.42932646118002</v>
+        <v>25.0174358974359</v>
       </c>
       <c r="AD68">
-        <v>0.0007013727613468586</v>
+        <v>0.0006288141878217162</v>
       </c>
       <c r="AE68">
-        <v>23.43518285565152</v>
+        <v>25.0174358974359</v>
       </c>
       <c r="AF68">
-        <v>0.008636721915678457</v>
+        <v>0.008090483700932851</v>
       </c>
     </row>
     <row r="69">
@@ -6770,16 +6770,16 @@
         <v>0.3653243875158154</v>
       </c>
       <c r="AC69">
-        <v>22.42997533436028</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AD69">
-        <v>0.0007168704981805855</v>
+        <v>0.0006423059202850732</v>
       </c>
       <c r="AE69">
-        <v>23.76000740496764</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AF69">
-        <v>0.01119167045351002</v>
+        <v>0.01062218610816624</v>
       </c>
     </row>
     <row r="70">
@@ -6862,16 +6862,16 @@
         <v>0.3484990204555798</v>
       </c>
       <c r="AC70">
-        <v>22.42859479142199</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AD70">
-        <v>0.0006838964290441574</v>
+        <v>0.0006161570941485495</v>
       </c>
       <c r="AE70">
-        <v>22.70216163650332</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AF70">
-        <v>0.002602389659924779</v>
+        <v>0.00237322321742163</v>
       </c>
     </row>
     <row r="71">
@@ -6954,16 +6954,16 @@
         <v>0.3621326131908294</v>
       </c>
       <c r="AC71">
-        <v>22.42971344518489</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AD71">
-        <v>0.0007106156249358083</v>
+        <v>0.0006369029596744523</v>
       </c>
       <c r="AE71">
-        <v>23.08672939884138</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AF71">
-        <v>0.005815987166479635</v>
+        <v>0.005365381920170423</v>
       </c>
     </row>
     <row r="72">
@@ -7046,16 +7046,16 @@
         <v>0.3470512052978542</v>
       </c>
       <c r="AC72">
-        <v>22.42847599633214</v>
+        <v>24.91076923076923</v>
       </c>
       <c r="AD72">
-        <v>0.0006810588357620815</v>
+        <v>0.000613193097670877</v>
       </c>
       <c r="AE72">
-        <v>23.44475110461207</v>
+        <v>24.91076923076923</v>
       </c>
       <c r="AF72">
-        <v>0.008712994194889535</v>
+        <v>0.008200227716083544</v>
       </c>
     </row>
     <row r="73">
@@ -7138,16 +7138,16 @@
         <v>0.3450111021210591</v>
       </c>
       <c r="AC73">
-        <v>22.42830860325096</v>
+        <v>24.82871794871795</v>
       </c>
       <c r="AD73">
-        <v>0.0006770603578441575</v>
+        <v>0.0006116030106798325</v>
       </c>
       <c r="AE73">
-        <v>23.74396308506429</v>
+        <v>24.82871794871795</v>
       </c>
       <c r="AF73">
-        <v>0.01106711298785236</v>
+        <v>0.01058359609161256</v>
       </c>
     </row>
     <row r="74">
@@ -7230,16 +7230,16 @@
         <v>0.3407992762076755</v>
       </c>
       <c r="AC74">
-        <v>22.42796301753499</v>
+        <v>24.81230769230769</v>
       </c>
       <c r="AD74">
-        <v>0.0006688052468820792</v>
+        <v>0.0006045362458428205</v>
       </c>
       <c r="AE74">
-        <v>22.85631837928383</v>
+        <v>24.81230769230769</v>
       </c>
       <c r="AF74">
-        <v>0.003903569325139322</v>
+        <v>0.003595845433540663</v>
       </c>
     </row>
     <row r="75">
@@ -7322,16 +7322,16 @@
         <v>0.3566045916795135</v>
       </c>
       <c r="AC75">
-        <v>22.42925986393268</v>
+        <v>24.96</v>
       </c>
       <c r="AD75">
-        <v>0.0006997820968413394</v>
+        <v>0.0006288299077797317</v>
       </c>
       <c r="AE75">
-        <v>23.31692163221843</v>
+        <v>24.96</v>
       </c>
       <c r="AF75">
-        <v>0.007688846982174347</v>
+        <v>0.00718270202425795</v>
       </c>
     </row>
     <row r="76">
@@ -7414,16 +7414,16 @@
         <v>0.3571530065119853</v>
       </c>
       <c r="AC76">
-        <v>22.42930486207278</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AD76">
-        <v>0.0007008568711908712</v>
+        <v>0.0006289699244050827</v>
       </c>
       <c r="AE76">
-        <v>23.81652716826355</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AF76">
-        <v>0.01162911555592275</v>
+        <v>0.01108178832550877</v>
       </c>
     </row>
     <row r="77">
@@ -7506,16 +7506,16 @@
         <v>0.3556064766844148</v>
       </c>
       <c r="AC77">
-        <v>22.4291779673177</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AD77">
-        <v>0.0006978259964584698</v>
+        <v>0.0006258354608828795</v>
       </c>
       <c r="AE77">
-        <v>24.12765570268034</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AF77">
-        <v>0.01400045929666623</v>
+        <v>0.01350694328451523</v>
       </c>
     </row>
     <row r="78">
@@ -7598,16 +7598,16 @@
         <v>0.3433219844370458</v>
       </c>
       <c r="AC78">
-        <v>22.42817000897945</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD78">
-        <v>0.0006737497449396107</v>
+        <v>0.0006088098957618525</v>
       </c>
       <c r="AE78">
-        <v>23.22459386404731</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF78">
-        <v>0.006942121061616903</v>
+        <v>0.00649575387007537</v>
       </c>
     </row>
     <row r="79">
@@ -7690,16 +7690,16 @@
         <v>0.3585569484831131</v>
       </c>
       <c r="AC79">
-        <v>22.42942005731143</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AD79">
-        <v>0.000703608273874712</v>
+        <v>0.000631442358514131</v>
       </c>
       <c r="AE79">
-        <v>24.15671050745078</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AF79">
-        <v>0.01421878922410701</v>
+        <v>0.01374311374248537</v>
       </c>
     </row>
     <row r="80">
@@ -7782,16 +7782,16 @@
         <v>0.3508462359385593</v>
       </c>
       <c r="AC80">
-        <v>22.42878738346162</v>
+        <v>25.04205128205128</v>
       </c>
       <c r="AD80">
-        <v>0.0006884967057999027</v>
+        <v>0.0006166486145513087</v>
       </c>
       <c r="AE80">
-        <v>25.50622742601274</v>
+        <v>25.04205128205128</v>
       </c>
       <c r="AF80">
-        <v>0.0238115263084154</v>
+        <v>0.0242528936045362</v>
       </c>
     </row>
     <row r="81">
@@ -7874,16 +7874,16 @@
         <v>0.3407663713177272</v>
       </c>
       <c r="AC81">
-        <v>22.42796031764658</v>
+        <v>25.09948717948718</v>
       </c>
       <c r="AD81">
-        <v>0.00066874075282617</v>
+        <v>0.000597561653747098</v>
       </c>
       <c r="AE81">
-        <v>26.03583584027713</v>
+        <v>25.09948717948718</v>
       </c>
       <c r="AF81">
-        <v>0.02730441989399636</v>
+        <v>0.02832302464948653</v>
       </c>
     </row>
     <row r="82">
@@ -7966,16 +7966,16 @@
         <v>0.3473144444174407</v>
       </c>
       <c r="AC82">
-        <v>22.42849759543938</v>
+        <v>24.81230769230769</v>
       </c>
       <c r="AD82">
-        <v>0.0006815747640491817</v>
+        <v>0.0006160933576254342</v>
       </c>
       <c r="AE82">
-        <v>22.67188162912208</v>
+        <v>24.81230769230769</v>
       </c>
       <c r="AF82">
-        <v>0.002344728219504443</v>
+        <v>0.00214246096349786</v>
       </c>
     </row>
     <row r="83">
@@ -8058,16 +8058,16 @@
         <v>0.35667040145941</v>
       </c>
       <c r="AC83">
-        <v>22.42926526370949</v>
+        <v>25.09128205128205</v>
       </c>
       <c r="AD83">
-        <v>0.000699911069990982</v>
+        <v>0.0006256551983971799</v>
       </c>
       <c r="AE83">
-        <v>23.06919733291062</v>
+        <v>25.09128205128205</v>
       </c>
       <c r="AF83">
-        <v>0.005671813338654273</v>
+        <v>0.005214726807399803</v>
       </c>
     </row>
     <row r="84">
@@ -8150,16 +8150,16 @@
         <v>0.3559574621771966</v>
       </c>
       <c r="AC84">
-        <v>22.42920676612736</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AD84">
-        <v>0.0006985138575621695</v>
+        <v>0.0006237926309523216</v>
       </c>
       <c r="AE84">
-        <v>23.7785896445648</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AF84">
-        <v>0.01133572057278646</v>
+        <v>0.01073214479051359</v>
       </c>
     </row>
     <row r="85">
@@ -8242,16 +8242,16 @@
         <v>0.3580414385405896</v>
       </c>
       <c r="AC85">
-        <v>22.42937775905974</v>
+        <v>25.13230769230769</v>
       </c>
       <c r="AD85">
-        <v>0.0007025979964852193</v>
+        <v>0.0006270349730259293</v>
       </c>
       <c r="AE85">
-        <v>24.34561049569474</v>
+        <v>25.13230769230769</v>
       </c>
       <c r="AF85">
-        <v>0.01562555468584972</v>
+        <v>0.01513644002843835</v>
       </c>
     </row>
     <row r="86">
@@ -8334,16 +8334,16 @@
         <v>0.336565513700993</v>
       </c>
       <c r="AC86">
-        <v>22.42761563189341</v>
+        <v>24.88615384615385</v>
       </c>
       <c r="AD86">
-        <v>0.0006605068841544478</v>
+        <v>0.0005952544781171538</v>
       </c>
       <c r="AE86">
-        <v>22.79960900129815</v>
+        <v>24.88615384615385</v>
       </c>
       <c r="AF86">
-        <v>0.003426952424532104</v>
+        <v>0.003139624380223709</v>
       </c>
     </row>
     <row r="87">
@@ -8426,16 +8426,16 @@
         <v>0.3313446044958613</v>
       </c>
       <c r="AC87">
-        <v>22.42718724959967</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AD87">
-        <v>0.0006502733160415007</v>
+        <v>0.0005839030217938493</v>
       </c>
       <c r="AE87">
-        <v>23.46111631091349</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AF87">
-        <v>0.008843303496104673</v>
+        <v>0.00830678907676779</v>
       </c>
     </row>
     <row r="88">
@@ -8518,16 +8518,16 @@
         <v>0.3577672311243537</v>
       </c>
       <c r="AC88">
-        <v>22.42935525998969</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AD88">
-        <v>0.0007020606133425941</v>
+        <v>0.0006298448366401222</v>
       </c>
       <c r="AE88">
-        <v>22.57716179871082</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AF88">
-        <v>0.001534267013390654</v>
+        <v>0.001385518942347062</v>
       </c>
     </row>
     <row r="89">
@@ -8610,16 +8610,16 @@
         <v>0.3474350956805846</v>
       </c>
       <c r="AC89">
-        <v>22.4285074950302</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AD89">
-        <v>0.0006818112308486739</v>
+        <v>0.0006108533306191869</v>
       </c>
       <c r="AE89">
-        <v>25.24861399134632</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AF89">
-        <v>0.02205953088249788</v>
+        <v>0.02224878177566014</v>
       </c>
     </row>
     <row r="90">
@@ -8702,16 +8702,16 @@
         <v>0.3727608926441333</v>
       </c>
       <c r="AC90">
-        <v>22.43058550914003</v>
+        <v>25.08307692307692</v>
       </c>
       <c r="AD90">
-        <v>0.0007314431414264007</v>
+        <v>0.0006540943114416876</v>
       </c>
       <c r="AE90">
-        <v>22.91158376847821</v>
+        <v>25.08307692307692</v>
       </c>
       <c r="AF90">
-        <v>0.004365780110737507</v>
+        <v>0.003987825617593657</v>
       </c>
     </row>
     <row r="91">
@@ -8794,16 +8794,16 @@
         <v>0.3676716029987948</v>
       </c>
       <c r="AC91">
-        <v>22.4301679263999</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AD91">
-        <v>0.0007214702086711626</v>
+        <v>0.0006445314741025012</v>
       </c>
       <c r="AE91">
-        <v>23.38273251531292</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AF91">
-        <v>0.00821751066172406</v>
+        <v>0.00765294760625838</v>
       </c>
     </row>
     <row r="92">
@@ -8886,16 +8886,16 @@
         <v>0.3490584035847011</v>
       </c>
       <c r="AC92">
-        <v>22.4286406895249</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AD92">
-        <v>0.0006849927638527111</v>
+        <v>0.000611702473088558</v>
       </c>
       <c r="AE92">
-        <v>24.12785990311548</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AF92">
-        <v>0.01400199557874471</v>
+        <v>0.01345116926640782</v>
       </c>
     </row>
     <row r="93">
@@ -8978,16 +8978,16 @@
         <v>0.3428174427911718</v>
       </c>
       <c r="AC93">
-        <v>22.42812861069056</v>
+        <v>25.13230769230769</v>
       </c>
       <c r="AD93">
-        <v>0.0006727608526294275</v>
+        <v>0.0006003733167578913</v>
       </c>
       <c r="AE93">
-        <v>25.0423132088799</v>
+        <v>25.13230769230769</v>
       </c>
       <c r="AF93">
-        <v>0.02063051478864231</v>
+        <v>0.02055664045350429</v>
       </c>
     </row>
     <row r="94">
@@ -9070,16 +9070,16 @@
         <v>0.4710916721063312</v>
       </c>
       <c r="AC94">
-        <v>22.43865367566001</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AD94">
-        <v>0.0009240585088480438</v>
+        <v>0.0008271793426630875</v>
       </c>
       <c r="AE94">
-        <v>22.79823794123368</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AF94">
-        <v>0.003415399923114967</v>
+        <v>0.003106320483177377</v>
       </c>
     </row>
     <row r="95">
@@ -9162,16 +9162,16 @@
         <v>0.3710388700701718</v>
       </c>
       <c r="AC95">
-        <v>22.43044421498011</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AD95">
-        <v>0.0007280687208308603</v>
+        <v>0.0006504343221644946</v>
       </c>
       <c r="AE95">
-        <v>23.2730622959008</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AF95">
-        <v>0.007334861426472839</v>
+        <v>0.006798899907571473</v>
       </c>
     </row>
     <row r="96">
@@ -9254,16 +9254,16 @@
         <v>0.464653281973112</v>
       </c>
       <c r="AC96">
-        <v>22.43812539749523</v>
+        <v>25.12410256410256</v>
       </c>
       <c r="AD96">
-        <v>0.0009114508984359061</v>
+        <v>0.0008140091571662899</v>
       </c>
       <c r="AE96">
-        <v>23.62982962756996</v>
+        <v>25.12410256410256</v>
       </c>
       <c r="AF96">
-        <v>0.01017617514621366</v>
+        <v>0.009570940269481024</v>
       </c>
     </row>
     <row r="97">
@@ -9346,16 +9346,16 @@
         <v>0.3457788828865196</v>
       </c>
       <c r="AC97">
-        <v>22.4283716006471</v>
+        <v>25.14871794871795</v>
       </c>
       <c r="AD97">
-        <v>0.0006785651683659539</v>
+        <v>0.0006051645170303056</v>
       </c>
       <c r="AE97">
-        <v>24.25195542469525</v>
+        <v>25.14871794871795</v>
       </c>
       <c r="AF97">
-        <v>0.01493083101400587</v>
+        <v>0.01439842177814823</v>
       </c>
     </row>
     <row r="98">
@@ -9438,16 +9438,16 @@
         <v>0.3405031321981407</v>
       </c>
       <c r="AC98">
-        <v>22.42793871853933</v>
+        <v>24.68102564102564</v>
       </c>
       <c r="AD98">
-        <v>0.0006682247998199015</v>
+        <v>0.0006072237466362508</v>
       </c>
       <c r="AE98">
-        <v>22.68874275076597</v>
+        <v>24.68102564102564</v>
       </c>
       <c r="AF98">
-        <v>0.002488289292507447</v>
+        <v>0.00228743150581812</v>
       </c>
     </row>
     <row r="99">
@@ -9530,16 +9530,16 @@
         <v>0.3353370644762562</v>
       </c>
       <c r="AC99">
-        <v>22.42751483605959</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AD99">
-        <v>0.0006580990209457873</v>
+        <v>0.0005936690353531967</v>
       </c>
       <c r="AE99">
-        <v>23.03483331682671</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AF99">
-        <v>0.005388586381722835</v>
+        <v>0.004992659215693076</v>
       </c>
     </row>
     <row r="100">
@@ -9622,16 +9622,16 @@
         <v>0.3442433213555985</v>
       </c>
       <c r="AC100">
-        <v>22.42824560585482</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AD100">
-        <v>0.0006755555388688119</v>
+        <v>0.0006080316680725914</v>
       </c>
       <c r="AE100">
-        <v>23.36181655645709</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AF100">
-        <v>0.008049814107724979</v>
+        <v>0.007546790561647803</v>
       </c>
     </row>
     <row r="101">
@@ -9714,16 +9714,16 @@
         <v>0.3515701435174221</v>
       </c>
       <c r="AC101">
-        <v>22.42884678100656</v>
+        <v>24.94358974358974</v>
       </c>
       <c r="AD101">
-        <v>0.0006899154668032101</v>
+        <v>0.0006203601188057737</v>
       </c>
       <c r="AE101">
-        <v>23.79456103574132</v>
+        <v>24.94358974358974</v>
       </c>
       <c r="AF101">
-        <v>0.01145935151746562</v>
+        <v>0.01093147545783478</v>
       </c>
     </row>
     <row r="102">
@@ -9806,16 +9806,16 @@
         <v>0.3546302982826149</v>
       </c>
       <c r="AC102">
-        <v>22.42909787062832</v>
+        <v>24.68923076923077</v>
       </c>
       <c r="AD102">
-        <v>0.0006959128734754482</v>
+        <v>0.000632206733960441</v>
       </c>
       <c r="AE102">
-        <v>22.97670912154046</v>
+        <v>24.68923076923077</v>
       </c>
       <c r="AF102">
-        <v>0.004907600550101652</v>
+        <v>0.004567194149480212</v>
       </c>
     </row>
     <row r="103">
@@ -9898,16 +9898,16 @@
         <v>0.3431355233940055</v>
       </c>
       <c r="AC103">
-        <v>22.42815470961181</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AD103">
-        <v>0.0006733842851632957</v>
+        <v>0.0006092849120116336</v>
       </c>
       <c r="AE103">
-        <v>23.39788710474891</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AF103">
-        <v>0.008338827337844077</v>
+        <v>0.00787128298249536</v>
       </c>
     </row>
     <row r="104">
@@ -9990,16 +9990,16 @@
         <v>0.3527876244455095</v>
       </c>
       <c r="AC104">
-        <v>22.42894667687758</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD104">
-        <v>0.0006923015479078357</v>
+        <v>0.0006255952330490098</v>
       </c>
       <c r="AE104">
-        <v>24.07984362936834</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF104">
-        <v>0.01364003254482342</v>
+        <v>0.01323300018633769</v>
       </c>
     </row>
     <row r="105">
@@ -10082,16 +10082,16 @@
         <v>0.3475667152403778</v>
       </c>
       <c r="AC105">
-        <v>22.42851829458382</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AD105">
-        <v>0.0006820691943918647</v>
+        <v>0.0006163370400609603</v>
       </c>
       <c r="AE105">
-        <v>24.83322654904845</v>
+        <v>24.82051282051282</v>
       </c>
       <c r="AF105">
-        <v>0.01915797526000654</v>
+        <v>0.01916778848580528</v>
       </c>
     </row>
     <row r="106">
@@ -10174,16 +10174,16 @@
         <v>0.3421374083989068</v>
       </c>
       <c r="AC106">
-        <v>22.42807281299683</v>
+        <v>24.8451282051282</v>
       </c>
       <c r="AD106">
-        <v>0.0006714279920004113</v>
+        <v>0.00060610819831315</v>
       </c>
       <c r="AE106">
-        <v>22.80617258671316</v>
+        <v>24.8451282051282</v>
       </c>
       <c r="AF106">
-        <v>0.003482237711230813</v>
+        <v>0.003196462243004198</v>
       </c>
     </row>
     <row r="107">
@@ -10266,16 +10266,16 @@
         <v>0.3454827388769848</v>
       </c>
       <c r="AC107">
-        <v>22.42834730165144</v>
+        <v>24.8451282051282</v>
       </c>
       <c r="AD107">
-        <v>0.0006779847424518862</v>
+        <v>0.0006120345664303303</v>
       </c>
       <c r="AE107">
-        <v>23.15324039771347</v>
+        <v>24.8451282051282</v>
       </c>
       <c r="AF107">
-        <v>0.006360950781411931</v>
+        <v>0.005927786783151109</v>
       </c>
     </row>
     <row r="108">
@@ -10358,16 +10358,16 @@
         <v>0.3487074180919191</v>
       </c>
       <c r="AC108">
-        <v>22.42861189071523</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AD108">
-        <v>0.0006843048680266896</v>
+        <v>0.0006165255476433868</v>
       </c>
       <c r="AE108">
-        <v>23.5835344717761</v>
+        <v>24.89435897435897</v>
       </c>
       <c r="AF108">
-        <v>0.009812331917736774</v>
+        <v>0.009295658838566775</v>
       </c>
     </row>
     <row r="109">
@@ -10450,16 +10450,16 @@
         <v>0.3509230140151053</v>
       </c>
       <c r="AC109">
-        <v>22.42879368320124</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AD109">
-        <v>0.0006886471808080015</v>
+        <v>0.0006202383608068091</v>
       </c>
       <c r="AE109">
-        <v>24.01553507804663</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AF109">
-        <v>0.01315298537152657</v>
+        <v>0.01268447619570252</v>
       </c>
     </row>
     <row r="110">
@@ -10542,16 +10542,16 @@
         <v>0.3408870225808709</v>
       </c>
       <c r="AC110">
-        <v>22.42797021723741</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AD110">
-        <v>0.0006689772309552568</v>
+        <v>0.0006021034893224232</v>
       </c>
       <c r="AE110">
-        <v>23.28206170079205</v>
+        <v>24.91897435897436</v>
       </c>
       <c r="AF110">
-        <v>0.007407603730757821</v>
+        <v>0.006921002631571368</v>
       </c>
     </row>
     <row r="111">
@@ -10634,16 +10634,16 @@
         <v>0.3488390376517124</v>
       </c>
       <c r="AC111">
-        <v>22.42862269026886</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AD111">
-        <v>0.0006845628291684645</v>
+        <v>0.0006133217128860375</v>
       </c>
       <c r="AE111">
-        <v>24.50463887742773</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AF111">
-        <v>0.01679304663367908</v>
+        <v>0.01643804714949428</v>
       </c>
     </row>
     <row r="112">
@@ -10726,16 +10726,16 @@
         <v>0.3481151300728496</v>
       </c>
       <c r="AC112">
-        <v>22.42856329272393</v>
+        <v>25.0174358974359</v>
       </c>
       <c r="AD112">
-        <v>0.0006831440398144898</v>
+        <v>0.0006124504284868294</v>
       </c>
       <c r="AE112">
-        <v>25.64795711374084</v>
+        <v>25.0174358974359</v>
       </c>
       <c r="AF112">
-        <v>0.02476040360205351</v>
+        <v>0.0253844467637657</v>
       </c>
     </row>
     <row r="113">
@@ -10818,16 +10818,16 @@
         <v>0.340963800657417</v>
       </c>
       <c r="AC113">
-        <v>22.42797651697702</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AD113">
-        <v>0.0006691277169287099</v>
+        <v>0.0006002626027273615</v>
       </c>
       <c r="AE113">
-        <v>26.79461548574291</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AF113">
-        <v>0.03206812478257292</v>
+        <v>0.03436871291743592</v>
       </c>
     </row>
     <row r="114">
@@ -10910,16 +10910,16 @@
         <v>0.3391650000069095</v>
       </c>
       <c r="AC114">
-        <v>22.42782892307749</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AD114">
-        <v>0.0006656020233391245</v>
+        <v>0.0005955322464217066</v>
       </c>
       <c r="AE114">
-        <v>22.76727240382021</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AF114">
-        <v>0.003154114870036795</v>
+        <v>0.002864784272835148</v>
       </c>
     </row>
     <row r="115">
@@ -11002,16 +11002,16 @@
         <v>0.3367958479306312</v>
       </c>
       <c r="AC115">
-        <v>22.42763453111226</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AD115">
-        <v>0.0006609583560965777</v>
+        <v>0.0005904060106024645</v>
       </c>
       <c r="AE115">
-        <v>23.37730661803651</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AF115">
-        <v>0.008174036615458676</v>
+        <v>0.007610693883168669</v>
       </c>
     </row>
     <row r="116">
@@ -11094,16 +11094,16 @@
         <v>0.3442213847622996</v>
       </c>
       <c r="AC116">
-        <v>22.42824380592921</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AD116">
-        <v>0.0006755125439167287</v>
+        <v>0.0006065947777679311</v>
       </c>
       <c r="AE116">
-        <v>23.55749891629656</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AF116">
-        <v>0.009607084829242576</v>
+        <v>0.009061305773337296</v>
       </c>
     </row>
     <row r="117">
@@ -11186,16 +11186,16 @@
         <v>0.3401960198919565</v>
       </c>
       <c r="AC117">
-        <v>22.42791351958088</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AD117">
-        <v>0.0006676228533899033</v>
+        <v>0.0005987144409873876</v>
       </c>
       <c r="AE117">
-        <v>24.65743914588914</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AF117">
-        <v>0.0179006290977448</v>
+        <v>0.01764883041480091</v>
       </c>
     </row>
     <row r="118">
@@ -11278,16 +11278,16 @@
         <v>0.3484332106756833</v>
       </c>
       <c r="AC118">
-        <v>22.42858939164519</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AD118">
-        <v>0.0006837674481834454</v>
+        <v>0.0006136137906809149</v>
       </c>
       <c r="AE118">
-        <v>22.88196011963847</v>
+        <v>24.99282051282051</v>
       </c>
       <c r="AF118">
-        <v>0.004118301057339131</v>
+        <v>0.003770474825214685</v>
       </c>
     </row>
     <row r="119">
@@ -11370,16 +11370,16 @@
         <v>0.349431325670782</v>
       </c>
       <c r="AC119">
-        <v>22.42867128826017</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AD119">
-        <v>0.0006857236512322547</v>
+        <v>0.0006135586583008164</v>
       </c>
       <c r="AE119">
-        <v>23.02294593435286</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AF119">
-        <v>0.00529041418721262</v>
+        <v>0.004859079247441335</v>
       </c>
     </row>
     <row r="120">
@@ -11462,16 +11462,16 @@
         <v>0.343980082236012</v>
       </c>
       <c r="AC120">
-        <v>22.42822400674757</v>
+        <v>24.96</v>
       </c>
       <c r="AD120">
-        <v>0.0006750395989883529</v>
+        <v>0.0006065680825134548</v>
       </c>
       <c r="AE120">
-        <v>23.37691280291162</v>
+        <v>24.96</v>
       </c>
       <c r="AF120">
-        <v>0.008170880455598481</v>
+        <v>0.007652642625542484</v>
       </c>
     </row>
     <row r="121">
@@ -11554,16 +11554,16 @@
         <v>0.3523927657661298</v>
       </c>
       <c r="AC121">
-        <v>22.42891427821671</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AD121">
-        <v>0.000691527686094649</v>
+        <v>0.0006222210258648649</v>
       </c>
       <c r="AE121">
-        <v>23.68859559565234</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AF121">
-        <v>0.0106359807091221</v>
+        <v>0.01010749916215497</v>
       </c>
     </row>
     <row r="122">
@@ -11646,16 +11646,16 @@
         <v>0.3441555749824031</v>
       </c>
       <c r="AC122">
-        <v>22.4282384061524</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AD122">
-        <v>0.0006753835590190738</v>
+        <v>0.0006033076752591341</v>
       </c>
       <c r="AE122">
-        <v>22.91663043637508</v>
+        <v>25.10769230769231</v>
       </c>
       <c r="AF122">
-        <v>0.004407876716939443</v>
+        <v>0.004023216490519748</v>
       </c>
     </row>
     <row r="123">
@@ -11738,16 +11738,16 @@
         <v>0.3434426357001897</v>
       </c>
       <c r="AC123">
-        <v>22.42817990857027</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AD123">
-        <v>0.000673986218646833</v>
+        <v>0.0006052224484032295</v>
       </c>
       <c r="AE123">
-        <v>23.48842082623993</v>
+        <v>24.97641025641025</v>
       </c>
       <c r="AF123">
-        <v>0.00906031372778779</v>
+        <v>0.008520538358846802</v>
       </c>
     </row>
     <row r="124">
@@ -11830,16 +11830,16 @@
         <v>0.3464369806854858</v>
       </c>
       <c r="AC124">
-        <v>22.42842559841522</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AD124">
-        <v>0.0006798549992277832</v>
+        <v>0.0006092981695161352</v>
       </c>
       <c r="AE124">
-        <v>24.19829446749121</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AF124">
-        <v>0.01453035627479943</v>
+        <v>0.01404998335486788</v>
       </c>
     </row>
     <row r="125">
@@ -11922,16 +11922,16 @@
         <v>0.3432561746571492</v>
       </c>
       <c r="AC125">
-        <v>22.42816460920264</v>
+        <v>25.09128205128205</v>
       </c>
       <c r="AD125">
-        <v>0.0006736207591931388</v>
+        <v>0.0006021245642403438</v>
       </c>
       <c r="AE125">
-        <v>24.83315362032161</v>
+        <v>25.09128205128205</v>
       </c>
       <c r="AF125">
-        <v>0.01915745731716306</v>
+        <v>0.01896037354964715</v>
       </c>
     </row>
     <row r="126">
@@ -12014,16 +12014,16 @@
         <v>0.3494751988573797</v>
       </c>
       <c r="AC126">
-        <v>22.42867488811137</v>
+        <v>25.05846153846154</v>
       </c>
       <c r="AD126">
-        <v>0.000685809637851679</v>
+        <v>0.0006138366227671085</v>
       </c>
       <c r="AE126">
-        <v>22.82170640552869</v>
+        <v>25.05846153846154</v>
       </c>
       <c r="AF126">
-        <v>0.003612952867155707</v>
+        <v>0.003290455380298773</v>
       </c>
     </row>
     <row r="127">
@@ -12106,16 +12106,16 @@
         <v>0.3506159017089212</v>
       </c>
       <c r="AC127">
-        <v>22.42876848424278</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AD127">
-        <v>0.0006880452802684255</v>
+        <v>0.0006156386289022522</v>
       </c>
       <c r="AE127">
-        <v>23.13061790664974</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="AF127">
-        <v>0.006175943151191596</v>
+        <v>0.005698938081518743</v>
       </c>
     </row>
     <row r="128">
@@ -12198,16 +12198,16 @@
         <v>0.3517895094504108</v>
       </c>
       <c r="AC128">
-        <v>22.42886478026259</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AD128">
-        <v>0.0006903453928963898</v>
+        <v>0.000618509172493716</v>
       </c>
       <c r="AE128">
-        <v>23.48350543005136</v>
+        <v>25.03384615384616</v>
       </c>
       <c r="AF128">
-        <v>0.009021284495003437</v>
+        <v>0.008462598280843987</v>
       </c>
     </row>
     <row r="129">
@@ -12290,16 +12290,16 @@
         <v>0.3532592612014353</v>
       </c>
       <c r="AC129">
-        <v>22.42898537527807</v>
+        <v>25.04205128205128</v>
       </c>
       <c r="AD129">
-        <v>0.0006932258799213385</v>
+        <v>0.0006208897564898826</v>
       </c>
       <c r="AE129">
-        <v>23.91690626787709</v>
+        <v>25.04205128205128</v>
       </c>
       <c r="AF129">
-        <v>0.01240092144883284</v>
+        <v>0.01184374525019928</v>
       </c>
     </row>
     <row r="130">
@@ -12376,16 +12376,16 @@
         <v>0.3380462337486669</v>
       </c>
       <c r="AC130">
-        <v>22.42773712687169</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="AD130">
-        <v>0.0006634091905057555</v>
+        <v>0.0006044499066211865</v>
       </c>
       <c r="AE130">
-        <v>22.97179372535189</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="AF130">
-        <v>0.004866813337672791</v>
+        <v>0.004541851928770434</v>
       </c>
     </row>
     <row r="131">
@@ -12462,16 +12462,16 @@
         <v>0.3408431493942732</v>
       </c>
       <c r="AC131">
-        <v>22.4279666173862</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AD131">
-        <v>0.0006688912389324704</v>
+        <v>0.0006070228925134278</v>
       </c>
       <c r="AE131">
-        <v>23.42491449091338</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AF131">
-        <v>0.008554799423333537</v>
+        <v>0.008108630430529574</v>
       </c>
     </row>
     <row r="132">
@@ -12548,16 +12548,16 @@
         <v>0.3384081875380984</v>
       </c>
       <c r="AC132">
-        <v>22.42776682564415</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AD132">
-        <v>0.0006641186383867297</v>
+        <v>0.0006010898392857745</v>
       </c>
       <c r="AE132">
-        <v>23.91820439921473</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AF132">
-        <v>0.01241086023370469</v>
+        <v>0.01197948487350325</v>
       </c>
     </row>
     <row r="133">
@@ -12634,16 +12634,16 @@
         <v>0.3445394653651333</v>
       </c>
       <c r="AC133">
-        <v>22.42826990485047</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AD133">
-        <v>0.000676135970046508</v>
+        <v>0.0006089557672103151</v>
       </c>
       <c r="AE133">
-        <v>24.37597801754819</v>
+        <v>24.9025641025641</v>
       </c>
       <c r="AF133">
-        <v>0.01584967171875461</v>
+        <v>0.01551451681081856</v>
       </c>
     </row>
     <row r="134">
@@ -12720,16 +12720,16 @@
         <v>0.3422690279587</v>
       </c>
       <c r="AC134">
-        <v>22.42808361255046</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AD134">
-        <v>0.0006716859655429612</v>
+        <v>0.0006105758759419632</v>
       </c>
       <c r="AE134">
-        <v>23.1029195761984</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AF134">
-        <v>0.005948931722494683</v>
+        <v>0.005570408582905008</v>
       </c>
     </row>
     <row r="135">
@@ -12806,16 +12806,16 @@
         <v>0.3434097308102413</v>
       </c>
       <c r="AC135">
-        <v>22.42817720868187</v>
+        <v>24.77128205128205</v>
       </c>
       <c r="AD135">
-        <v>0.0006739217258382934</v>
+        <v>0.0006101757616174608</v>
       </c>
       <c r="AE135">
-        <v>23.76992571181699</v>
+        <v>24.77128205128205</v>
       </c>
       <c r="AF135">
-        <v>0.01126858551200691</v>
+        <v>0.01081306328607237</v>
       </c>
     </row>
     <row r="136">
@@ -12892,16 +12892,16 @@
         <v>0.3472486346375441</v>
       </c>
       <c r="AC136">
-        <v>22.42849219566257</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AD136">
-        <v>0.0006814457820705661</v>
+        <v>0.0006131380171911392</v>
       </c>
       <c r="AE136">
-        <v>24.19914044072247</v>
+        <v>24.92717948717949</v>
       </c>
       <c r="AF136">
-        <v>0.01453668359997321</v>
+        <v>0.01411211598002989</v>
       </c>
     </row>
     <row r="137">
@@ -12978,16 +12978,16 @@
         <v>0.3356441767824404</v>
       </c>
       <c r="AC137">
-        <v>22.42754003501805</v>
+        <v>24.93538461538461</v>
       </c>
       <c r="AD137">
-        <v>0.0006587009887770082</v>
+        <v>0.0005924529749498096</v>
       </c>
       <c r="AE137">
-        <v>24.77482522460024</v>
+        <v>24.93538461538461</v>
       </c>
       <c r="AF137">
-        <v>0.01874223012399899</v>
+        <v>0.01862154856656301</v>
       </c>
     </row>
     <row r="138">
@@ -13064,16 +13064,16 @@
         <v>0.3378926775955748</v>
       </c>
       <c r="AC138">
-        <v>22.42772452739246</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AD138">
-        <v>0.000663108212049219</v>
+        <v>0.0006001741764858998</v>
       </c>
       <c r="AE138">
-        <v>22.96679081469111</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AF138">
-        <v>0.004825282015683399</v>
+        <v>0.00447229766594327</v>
       </c>
     </row>
     <row r="139">
@@ -13150,16 +13150,16 @@
         <v>0.3384081875380984</v>
       </c>
       <c r="AC139">
-        <v>22.42776682564415</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AD139">
-        <v>0.0006641186383867297</v>
+        <v>0.0005991060444366466</v>
       </c>
       <c r="AE139">
-        <v>23.57014475752948</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AF139">
-        <v>0.009706832904882933</v>
+        <v>0.009202626662030118</v>
       </c>
     </row>
     <row r="140">
@@ -13236,16 +13236,16 @@
         <v>0.3348763960169798</v>
       </c>
       <c r="AC140">
-        <v>22.42747703762191</v>
+        <v>25.08307692307692</v>
       </c>
       <c r="AD140">
-        <v>0.0006571960666626201</v>
+        <v>0.0005876172903146084</v>
       </c>
       <c r="AE140">
-        <v>24.57902617879783</v>
+        <v>25.08307692307692</v>
       </c>
       <c r="AF140">
-        <v>0.01733396789901795</v>
+        <v>0.01698563745105877</v>
       </c>
     </row>
     <row r="141">
@@ -13322,16 +13322,16 @@
         <v>0.3333079295961104</v>
       </c>
       <c r="AC141">
-        <v>22.42734834294122</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AD141">
-        <v>0.0006541216994946486</v>
+        <v>0.0005841007772342421</v>
       </c>
       <c r="AE141">
-        <v>25.47742057891353</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AF141">
-        <v>0.02361737412728049</v>
+        <v>0.02395732723252282</v>
       </c>
     </row>
     <row r="142">
@@ -13408,16 +13408,16 @@
         <v>0.3319697974048791</v>
       </c>
       <c r="AC142">
-        <v>22.42723854747938</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AD142">
-        <v>0.0006514987849282288</v>
+        <v>0.0005916127780898625</v>
       </c>
       <c r="AE142">
-        <v>23.75655058331573</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AF142">
-        <v>0.01116484820077013</v>
+        <v>0.01073950681107646</v>
       </c>
     </row>
     <row r="143">
@@ -13494,16 +13494,16 @@
         <v>0.3336918199788406</v>
       </c>
       <c r="AC143">
-        <v>22.42737984163929</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AD143">
-        <v>0.0006548741702443633</v>
+        <v>0.0005909513853761544</v>
       </c>
       <c r="AE143">
-        <v>25.14403419706717</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AF143">
-        <v>0.02133805218543969</v>
+        <v>0.02158763601862257</v>
       </c>
     </row>
     <row r="144">
@@ -13580,16 +13580,16 @@
         <v>0.3357538597489347</v>
       </c>
       <c r="AC144">
-        <v>22.42754903464606</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AD144">
-        <v>0.0006589159769603343</v>
+        <v>0.0005905091648940522</v>
       </c>
       <c r="AE144">
-        <v>26.57766710915881</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AF144">
-        <v>0.0307338654517904</v>
+        <v>0.03263990097669991</v>
       </c>
     </row>
     <row r="145">
@@ -13666,16 +13666,16 @@
         <v>0.3378268678156782</v>
       </c>
       <c r="AC145">
-        <v>22.42771912761565</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AD145">
-        <v>0.000662979221178611</v>
+        <v>0.0005945449461137746</v>
       </c>
       <c r="AE145">
-        <v>27.7841707944004</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AF145">
-        <v>0.03788973781888737</v>
+        <v>0.04209385552994355</v>
       </c>
     </row>
     <row r="146">
@@ -13752,16 +13752,16 @@
         <v>0.3701285014482685</v>
       </c>
       <c r="AC146">
-        <v>22.43036951806755</v>
+        <v>24.65641025641026</v>
       </c>
       <c r="AD146">
-        <v>0.0007262847742932592</v>
+        <v>0.0006607140168958189</v>
       </c>
       <c r="AE146">
-        <v>23.10970194779392</v>
+        <v>24.65641025641026</v>
       </c>
       <c r="AF146">
-        <v>0.006004569349717436</v>
+        <v>0.005627899866759898</v>
       </c>
     </row>
     <row r="147">
@@ -13838,16 +13838,16 @@
         <v>0.3617816276980474</v>
       </c>
       <c r="AC147">
-        <v>22.42968464637523</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AD147">
-        <v>0.0007099277949088413</v>
+        <v>0.0006404855671396167</v>
       </c>
       <c r="AE147">
-        <v>23.89036021130972</v>
+        <v>24.86153846153846</v>
       </c>
       <c r="AF147">
-        <v>0.01219744200280768</v>
+        <v>0.01172096745156946</v>
       </c>
     </row>
     <row r="148">
@@ -13924,16 +13924,16 @@
         <v>0.3665638050372017</v>
       </c>
       <c r="AC148">
-        <v>22.43007703015689</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AD148">
-        <v>0.0007192993271140158</v>
+        <v>0.0006451193746733395</v>
       </c>
       <c r="AE148">
-        <v>24.64101559660625</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AF148">
-        <v>0.01778224082755191</v>
+        <v>0.01752042986117771</v>
       </c>
     </row>
     <row r="149">
@@ -14010,16 +14010,16 @@
         <v>0.3743183907683533</v>
       </c>
       <c r="AC149">
-        <v>22.43071330385792</v>
+        <v>25.19794871794872</v>
       </c>
       <c r="AD149">
-        <v>0.0007344951285363128</v>
+        <v>0.0006538329701235894</v>
       </c>
       <c r="AE149">
-        <v>25.40866337525497</v>
+        <v>25.19794871794872</v>
       </c>
       <c r="AF149">
-        <v>0.02315218542340624</v>
+        <v>0.02334579264405705</v>
       </c>
     </row>
     <row r="150">
@@ -14096,16 +14096,16 @@
         <v>0.3705014235343494</v>
       </c>
       <c r="AC150">
-        <v>22.43040011680282</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AD150">
-        <v>0.0007270155490104229</v>
+        <v>0.0006609398243288508</v>
       </c>
       <c r="AE150">
-        <v>23.19305948256453</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AF150">
-        <v>0.006685716127780936</v>
+        <v>0.006284737967213383</v>
       </c>
     </row>
     <row r="151">
@@ -14182,16 +14182,16 @@
         <v>0.3715105068260976</v>
       </c>
       <c r="AC151">
-        <v>22.4304829133806</v>
+        <v>24.96</v>
       </c>
       <c r="AD151">
-        <v>0.0007289929294250502</v>
+        <v>0.0006551147214520776</v>
       </c>
       <c r="AE151">
-        <v>23.98639275880398</v>
+        <v>24.96</v>
       </c>
       <c r="AF151">
-        <v>0.01293141324087131</v>
+        <v>0.01242700147924429</v>
       </c>
     </row>
     <row r="152">
@@ -14268,16 +14268,16 @@
         <v>0.3755578082897397</v>
       </c>
       <c r="AC152">
-        <v>22.43081499965454</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AD152">
-        <v>0.0007369237976560004</v>
+        <v>0.000661164930247497</v>
       </c>
       <c r="AE152">
-        <v>24.75624298500307</v>
+        <v>25.00102564102564</v>
       </c>
       <c r="AF152">
-        <v>0.01860953622664044</v>
+        <v>0.01842733203348805</v>
       </c>
     </row>
     <row r="153">
@@ -14354,16 +14354,16 @@
         <v>0.3811845444709005</v>
       </c>
       <c r="AC153">
-        <v>22.43127668057197</v>
+        <v>25.16512820512821</v>
       </c>
       <c r="AD153">
-        <v>0.0007479492486878107</v>
+        <v>0.0006666946579244236</v>
       </c>
       <c r="AE153">
-        <v>25.94503957536951</v>
+        <v>25.16512820512821</v>
       </c>
       <c r="AF153">
-        <v>0.02671572488783338</v>
+        <v>0.02754369196332056</v>
       </c>
     </row>
     <row r="154">
@@ -14440,16 +14440,16 @@
         <v>0.3321781950412184</v>
       </c>
       <c r="AC154">
-        <v>22.42725564677261</v>
+        <v>24.74666666666667</v>
       </c>
       <c r="AD154">
-        <v>0.0006519072733113535</v>
+        <v>0.00059080648208018</v>
       </c>
       <c r="AE154">
-        <v>23.80799450722404</v>
+        <v>24.74666666666667</v>
       </c>
       <c r="AF154">
-        <v>0.01156320856620647</v>
+        <v>0.01112460153677787</v>
       </c>
     </row>
     <row r="155">
@@ -14526,16 +14526,16 @@
         <v>0.3378597727056266</v>
       </c>
       <c r="AC155">
-        <v>22.42772182750405</v>
+        <v>25.05846153846154</v>
       </c>
       <c r="AD155">
-        <v>0.0006630437166216793</v>
+        <v>0.0005934346772662415</v>
       </c>
       <c r="AE155">
-        <v>24.74197812603445</v>
+        <v>25.05846153846154</v>
       </c>
       <c r="AF155">
-        <v>0.01850753707548388</v>
+        <v>0.0182737905431886</v>
       </c>
     </row>
     <row r="156">
@@ -14612,16 +14612,16 @@
         <v>0.3347228398638877</v>
       </c>
       <c r="AC156">
-        <v>22.42746443814268</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AD156">
-        <v>0.0006568950812252059</v>
+        <v>0.0005865803167643303</v>
       </c>
       <c r="AE156">
-        <v>25.6713964065451</v>
+        <v>25.11589743589744</v>
       </c>
       <c r="AF156">
-        <v>0.02491631952255311</v>
+        <v>0.02546740434372792</v>
       </c>
     </row>
     <row r="157">
@@ -14698,16 +14698,16 @@
         <v>0.3661250731712243</v>
       </c>
       <c r="AC157">
-        <v>22.43004103164482</v>
+        <v>25.25538461538462</v>
       </c>
       <c r="AD157">
-        <v>0.0007184395671779366</v>
+        <v>0.0006380670584102626</v>
       </c>
       <c r="AE157">
-        <v>26.61268748378422</v>
+        <v>25.25538461538462</v>
       </c>
       <c r="AF157">
-        <v>0.03095071744912214</v>
+        <v>0.03261410520632654</v>
       </c>
     </row>
     <row r="158">
@@ -14784,16 +14784,16 @@
         <v>0.3747022811510836</v>
       </c>
       <c r="AC158">
-        <v>22.43074480255599</v>
+        <v>24.75487179487179</v>
       </c>
       <c r="AD158">
-        <v>0.0007352473735381497</v>
+        <v>0.0006662182029963207</v>
       </c>
       <c r="AE158">
-        <v>23.42886722790775</v>
+        <v>24.75487179487179</v>
       </c>
       <c r="AF158">
-        <v>0.008586343429101487</v>
+        <v>0.008126412523587005</v>
       </c>
     </row>
     <row r="159">
@@ -14870,16 +14870,16 @@
         <v>0.3483344960058384</v>
       </c>
       <c r="AC159">
-        <v>22.42858129197997</v>
+        <v>25.05025641025641</v>
       </c>
       <c r="AD159">
-        <v>0.0006835739767759299</v>
+        <v>0.0006120334361497274</v>
       </c>
       <c r="AE159">
-        <v>24.13980562857079</v>
+        <v>25.05025641025641</v>
       </c>
       <c r="AF159">
-        <v>0.01409182284615884</v>
+        <v>0.01357965598784247</v>
       </c>
     </row>
     <row r="160">
@@ -14956,16 +14956,16 @@
         <v>0.3363461477680043</v>
       </c>
       <c r="AC160">
-        <v>22.42759763263737</v>
+        <v>25.14051282051282</v>
       </c>
       <c r="AD160">
-        <v>0.0006600769101688253</v>
+        <v>0.0005888479464819034</v>
       </c>
       <c r="AE160">
-        <v>24.86233969680035</v>
+        <v>25.14051282051282</v>
       </c>
       <c r="AF160">
-        <v>0.01936449532283492</v>
+        <v>0.01915023230475228</v>
       </c>
     </row>
     <row r="161">
@@ -15042,16 +15042,16 @@
         <v>0.3439581456427132</v>
       </c>
       <c r="AC161">
-        <v>22.42822220682197</v>
+        <v>25.28</v>
       </c>
       <c r="AD161">
-        <v>0.0006749966039534587</v>
+        <v>0.0005988518125917079</v>
       </c>
       <c r="AE161">
-        <v>25.54374196309585</v>
+        <v>25.28</v>
       </c>
       <c r="AF161">
-        <v>0.02406371004546937</v>
+        <v>0.02431476266124316</v>
       </c>
     </row>
     <row r="162">
@@ -15128,16 +15128,16 @@
         <v>0.3756126497729868</v>
       </c>
       <c r="AC162">
-        <v>22.43081949946855</v>
+        <v>24.54974358974359</v>
       </c>
       <c r="AD162">
-        <v>0.0007370312603826147</v>
+        <v>0.0006734170198834615</v>
       </c>
       <c r="AE162">
-        <v>23.03799842357128</v>
+        <v>24.54974358974359</v>
       </c>
       <c r="AF162">
-        <v>0.005414708402689226</v>
+        <v>0.005081276844674182</v>
       </c>
     </row>
     <row r="163">
@@ -15214,16 +15214,16 @@
         <v>0.3723440973714547</v>
       </c>
       <c r="AC163">
-        <v>22.43055131055356</v>
+        <v>24.63179487179487</v>
       </c>
       <c r="AD163">
-        <v>0.000730626406583083</v>
+        <v>0.0006653332892307015</v>
       </c>
       <c r="AE163">
-        <v>23.37841513468438</v>
+        <v>24.63179487179487</v>
       </c>
       <c r="AF163">
-        <v>0.008182920050091653</v>
+        <v>0.007766535201380356</v>
       </c>
     </row>
     <row r="164">
@@ -15300,16 +15300,16 @@
         <v>0.3836633795136732</v>
       </c>
       <c r="AC164">
-        <v>22.43148007216522</v>
+        <v>24.66461538461539</v>
       </c>
       <c r="AD164">
-        <v>0.0007528063209199026</v>
+        <v>0.0006846472050177536</v>
       </c>
       <c r="AE164">
-        <v>23.77656222595883</v>
+        <v>24.66461538461539</v>
       </c>
       <c r="AF164">
-        <v>0.01132001490146708</v>
+        <v>0.01091243607517986</v>
       </c>
     </row>
     <row r="165">
@@ -15386,16 +15386,16 @@
         <v>0.3567471795359561</v>
       </c>
       <c r="AC165">
-        <v>22.42927156344911</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AD165">
-        <v>0.0007000615385870777</v>
+        <v>0.000631781264488824</v>
       </c>
       <c r="AE165">
-        <v>24.1876177018828</v>
+        <v>24.85333333333333</v>
       </c>
       <c r="AF165">
-        <v>0.01445046302521271</v>
+        <v>0.01406339626887223</v>
       </c>
     </row>
     <row r="166">
@@ -15472,16 +15472,16 @@
         <v>0.3614964519851621</v>
       </c>
       <c r="AC166">
-        <v>22.42966124734237</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AD166">
-        <v>0.0007093689317113588</v>
+        <v>0.00064745960837784</v>
       </c>
       <c r="AE166">
-        <v>23.18457057876111</v>
+        <v>24.57435897435898</v>
       </c>
       <c r="AF166">
-        <v>0.006616573999342398</v>
+        <v>0.006242377554483128</v>
       </c>
     </row>
     <row r="167">
@@ -15558,16 +15558,16 @@
         <v>0.3663992805874601</v>
       </c>
       <c r="AC167">
-        <v>22.43006353071487</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AD167">
-        <v>0.0007189769174613878</v>
+        <v>0.0006536219856743456</v>
       </c>
       <c r="AE167">
-        <v>23.74689481988299</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AF167">
-        <v>0.01108988560151568</v>
+        <v>0.01067370253866538</v>
       </c>
     </row>
     <row r="168">
@@ -15644,16 +15644,16 @@
         <v>0.372300224184857</v>
       </c>
       <c r="AC168">
-        <v>22.43054771070235</v>
+        <v>24.72205128205128</v>
       </c>
       <c r="AD168">
-        <v>0.0007305404343494384</v>
+        <v>0.0006628261498336579</v>
       </c>
       <c r="AE168">
-        <v>24.34528960929668</v>
+        <v>24.72205128205128</v>
       </c>
       <c r="AF168">
-        <v>0.0156231835091204</v>
+        <v>0.0153850877020414</v>
       </c>
     </row>
     <row r="169">
@@ -15730,16 +15730,16 @@
         <v>0.3591931096887804</v>
       </c>
       <c r="AC169">
-        <v>22.42947225515395</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AD169">
-        <v>0.000704854993911379</v>
+        <v>0.000635483484152207</v>
       </c>
       <c r="AE169">
-        <v>25.0170506979048</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AF169">
-        <v>0.02045390523454717</v>
+        <v>0.02056827072135705</v>
       </c>
     </row>
     <row r="170">
@@ -15816,16 +15816,16 @@
         <v>0.3448794825612658</v>
       </c>
       <c r="AC170">
-        <v>22.42829780369734</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="AD170">
-        <v>0.0006768023894773319</v>
+        <v>0.0006187306608200361</v>
       </c>
       <c r="AE170">
-        <v>23.08524165281398</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="AF170">
-        <v>0.005803761284693853</v>
+        <v>0.00546119151164689</v>
       </c>
     </row>
     <row r="171">
@@ -15902,16 +15902,16 @@
         <v>0.3397901929159273</v>
       </c>
       <c r="AC171">
-        <v>22.4278802209572</v>
+        <v>24.64820512820513</v>
       </c>
       <c r="AD171">
-        <v>0.0006668274221041535</v>
+        <v>0.0006067592132251408</v>
       </c>
       <c r="AE171">
-        <v>23.4460492359497</v>
+        <v>24.64820512820513</v>
       </c>
       <c r="AF171">
-        <v>0.00872333731494117</v>
+        <v>0.008297877882956486</v>
       </c>
     </row>
     <row r="172">
@@ -15988,16 +15988,16 @@
         <v>0.3504294406658807</v>
       </c>
       <c r="AC172">
-        <v>22.42875318487515</v>
+        <v>24.68102564102564</v>
       </c>
       <c r="AD172">
-        <v>0.0006876798399952579</v>
+        <v>0.000624925464030559</v>
       </c>
       <c r="AE172">
-        <v>23.8262704461685</v>
+        <v>24.68102564102564</v>
       </c>
       <c r="AF172">
-        <v>0.01170431572530888</v>
+        <v>0.01129897095504024</v>
       </c>
     </row>
     <row r="173">
@@ -16074,16 +16074,16 @@
         <v>0.3714446970462009</v>
       </c>
       <c r="AC173">
-        <v>22.43047751360379</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AD173">
-        <v>0.0007288639702777692</v>
+        <v>0.0006571589595727531</v>
       </c>
       <c r="AE173">
-        <v>22.67501756437591</v>
+        <v>24.87794871794872</v>
       </c>
       <c r="AF173">
-        <v>0.002371444753811999</v>
+        <v>0.002161454388996263</v>
       </c>
     </row>
     <row r="174">
@@ -16160,16 +16160,16 @@
         <v>0.3708085358405336</v>
       </c>
       <c r="AC174">
-        <v>22.43042531576127</v>
+        <v>24.5825641025641</v>
       </c>
       <c r="AD174">
-        <v>0.0007276173619863137</v>
+        <v>0.0006639163770057207</v>
       </c>
       <c r="AE174">
-        <v>23.28217838675498</v>
+        <v>24.5825641025641</v>
       </c>
       <c r="AF174">
-        <v>0.00740854653558349</v>
+        <v>0.007016644045282446</v>
       </c>
     </row>
     <row r="175">
@@ -16246,16 +16246,16 @@
         <v>0.3706330430941426</v>
       </c>
       <c r="AC175">
-        <v>22.43041091635644</v>
+        <v>24.73025641025641</v>
       </c>
       <c r="AD175">
-        <v>0.0007272734690228073</v>
+        <v>0.0006596390465235963</v>
       </c>
       <c r="AE175">
-        <v>23.92542434317123</v>
+        <v>24.73025641025641</v>
       </c>
       <c r="AF175">
-        <v>0.01246611806483432</v>
+        <v>0.01206041537400061</v>
       </c>
     </row>
     <row r="176">
@@ -16332,16 +16332,16 @@
         <v>0.3778063091028741</v>
       </c>
       <c r="AC176">
-        <v>22.43099949202895</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AD176">
-        <v>0.0007413297340924587</v>
+        <v>0.0006710698558208838</v>
       </c>
       <c r="AE176">
-        <v>24.56398827532477</v>
+        <v>24.77948717948718</v>
       </c>
       <c r="AF176">
-        <v>0.01722488115738505</v>
+        <v>0.01707508213261682</v>
       </c>
     </row>
     <row r="177">
@@ -16418,16 +16418,16 @@
         <v>0.3774114504234944</v>
       </c>
       <c r="AC177">
-        <v>22.43096709336808</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AD177">
-        <v>0.0007405560139157347</v>
+        <v>0.0006637747085846799</v>
       </c>
       <c r="AE177">
-        <v>25.22708543118509</v>
+        <v>25.02564102564103</v>
       </c>
       <c r="AF177">
-        <v>0.02191149786398078</v>
+        <v>0.02208787491091704</v>
       </c>
     </row>
     <row r="178">
@@ -16504,16 +16504,16 @@
         <v>0.3358964476053773</v>
       </c>
       <c r="AC178">
-        <v>22.42756073416249</v>
+        <v>24.63179487179487</v>
       </c>
       <c r="AD178">
-        <v>0.0006591954613407118</v>
+        <v>0.0006002058039965233</v>
       </c>
       <c r="AE178">
-        <v>23.44647222256534</v>
+        <v>24.63179487179487</v>
       </c>
       <c r="AF178">
-        <v>0.008726707297674345</v>
+        <v>0.008306763730144292</v>
       </c>
     </row>
     <row r="179">
@@ -16590,16 +16590,16 @@
         <v>0.338978538963869</v>
       </c>
       <c r="AC179">
-        <v>22.42781362370986</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AD179">
-        <v>0.0006652365524467828</v>
+        <v>0.0006047059518875473</v>
       </c>
       <c r="AE179">
-        <v>24.08700523034339</v>
+        <v>24.67282051282051</v>
       </c>
       <c r="AF179">
-        <v>0.01369411070164762</v>
+        <v>0.01336896671072084</v>
       </c>
     </row>
     <row r="180">
@@ -16676,16 +16676,16 @@
         <v>0.3281747667641741</v>
       </c>
       <c r="AC180">
-        <v>22.42692716034988</v>
+        <v>24.86974358974359</v>
       </c>
       <c r="AD180">
-        <v>0.00064405988752197</v>
+        <v>0.0005807974711213047</v>
       </c>
       <c r="AE180">
-        <v>24.68020749440653</v>
+        <v>24.86974358974359</v>
       </c>
       <c r="AF180">
-        <v>0.01806449288363379</v>
+        <v>0.01792682063811776</v>
       </c>
     </row>
     <row r="181">
@@ -16762,16 +16762,16 @@
         <v>0.3349751106868247</v>
       </c>
       <c r="AC181">
-        <v>22.42748513728712</v>
+        <v>24.94358974358974</v>
       </c>
       <c r="AD181">
-        <v>0.0006573895571223782</v>
+        <v>0.0005910774941910219</v>
       </c>
       <c r="AE181">
-        <v>25.20826981966206</v>
+        <v>24.94358974358974</v>
       </c>
       <c r="AF181">
-        <v>0.02178191235116785</v>
+        <v>0.02201304340637571</v>
       </c>
     </row>
     <row r="182">
@@ -16848,16 +16848,16 @@
         <v>0.3622752010472721</v>
       </c>
       <c r="AC182">
-        <v>22.42972514470132</v>
+        <v>24.66461538461539</v>
       </c>
       <c r="AD182">
-        <v>0.000710895055379733</v>
+        <v>0.0006464800058808328</v>
       </c>
       <c r="AE182">
-        <v>22.90757268850237</v>
+        <v>24.66461538461539</v>
       </c>
       <c r="AF182">
-        <v>0.004332308595918648</v>
+        <v>0.004023686261571826</v>
       </c>
     </row>
     <row r="183">
@@ -16934,16 +16934,16 @@
         <v>0.3629332988462382</v>
       </c>
       <c r="AC183">
-        <v>22.42977914246944</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AD183">
-        <v>0.0007121847305741964</v>
+        <v>0.0006463642330690932</v>
       </c>
       <c r="AE183">
-        <v>23.31537554320956</v>
+        <v>24.71384615384615</v>
       </c>
       <c r="AF183">
-        <v>0.007676391254765951</v>
+        <v>0.007242010968560793</v>
       </c>
     </row>
     <row r="184">
@@ -17020,16 +17020,16 @@
         <v>0.374033215055468</v>
       </c>
       <c r="AC184">
-        <v>22.43068990482507</v>
+        <v>24.96</v>
       </c>
       <c r="AD184">
-        <v>0.0007339363165958652</v>
+        <v>0.0006595632182472503</v>
       </c>
       <c r="AE184">
-        <v>23.72536625972176</v>
+        <v>24.96</v>
       </c>
       <c r="AF184">
-        <v>0.01092252876370421</v>
+        <v>0.01038225141831844</v>
       </c>
     </row>
     <row r="185">
@@ -17106,16 +17106,16 @@
         <v>0.3609261005593914</v>
       </c>
       <c r="AC185">
-        <v>22.42961444927667</v>
+        <v>24.96</v>
       </c>
       <c r="AD185">
-        <v>0.0007082512018182887</v>
+        <v>0.0006364503762027665</v>
       </c>
       <c r="AE185">
-        <v>24.16215099047256</v>
+        <v>24.96</v>
       </c>
       <c r="AF185">
-        <v>0.01425961291821457</v>
+        <v>0.01380380290046448</v>
       </c>
     </row>
     <row r="186">
@@ -17192,16 +17192,16 @@
         <v>0.3386385217677365</v>
       </c>
       <c r="AC186">
-        <v>22.42778572486299</v>
+        <v>24.62358974358975</v>
       </c>
       <c r="AD186">
-        <v>0.0006645701042418089</v>
+        <v>0.0006053071892559989</v>
       </c>
       <c r="AE186">
-        <v>23.18060325602138</v>
+        <v>24.62358974358975</v>
       </c>
       <c r="AF186">
-        <v>0.006584242788348527</v>
+        <v>0.006198394361153633</v>
       </c>
     </row>
     <row r="187">
@@ -17278,16 +17278,16 @@
         <v>0.3366093868875907</v>
       </c>
       <c r="AC187">
-        <v>22.42761923174462</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AD187">
-        <v>0.0006605928788687544</v>
+        <v>0.0005998811219106585</v>
       </c>
       <c r="AE187">
-        <v>23.81258901701455</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AF187">
-        <v>0.01159870281439027</v>
+        <v>0.01118315052609328</v>
       </c>
     </row>
     <row r="188">
@@ -17364,16 +17364,16 @@
         <v>0.3404482907148935</v>
       </c>
       <c r="AC188">
-        <v>22.42793421872533</v>
+        <v>24.95179487179487</v>
       </c>
       <c r="AD188">
-        <v>0.000668117309485178</v>
+        <v>0.0006005376023856128</v>
       </c>
       <c r="AE188">
-        <v>24.5064037526171</v>
+        <v>24.95179487179487</v>
       </c>
       <c r="AF188">
-        <v>0.01680591828709087</v>
+        <v>0.01650593158099789</v>
       </c>
     </row>
     <row r="189">
@@ -17450,16 +17450,16 @@
         <v>0.3670135051998286</v>
       </c>
       <c r="AC189">
-        <v>22.43011392863178</v>
+        <v>25.09948717948718</v>
       </c>
       <c r="AD189">
-        <v>0.0007201805781844559</v>
+        <v>0.0006435881459389762</v>
       </c>
       <c r="AE189">
-        <v>23.31021218934976</v>
+        <v>25.09948717948718</v>
       </c>
       <c r="AF189">
-        <v>0.007634781852393242</v>
+        <v>0.00709051877140063</v>
       </c>
     </row>
     <row r="190">
@@ -17536,16 +17536,16 @@
         <v>0.36737545898926</v>
       </c>
       <c r="AC190">
-        <v>22.43014362740425</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AD190">
-        <v>0.000720889875720539</v>
+        <v>0.00065471021036771</v>
       </c>
       <c r="AE190">
-        <v>22.98853816103285</v>
+        <v>24.6974358974359</v>
       </c>
       <c r="AF190">
-        <v>0.005005684631851821</v>
+        <v>0.004659324662661367</v>
       </c>
     </row>
     <row r="191">
@@ -17622,16 +17622,16 @@
         <v>0.3673315858026623</v>
       </c>
       <c r="AC191">
-        <v>22.43014002755304</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AD191">
-        <v>0.000720803900361658</v>
+        <v>0.0006522483907265978</v>
       </c>
       <c r="AE191">
-        <v>23.36979495917267</v>
+        <v>24.78769230769231</v>
       </c>
       <c r="AF191">
-        <v>0.008113817452858595</v>
+        <v>0.007649693559840512</v>
       </c>
     </row>
     <row r="192">
@@ -17708,16 +17708,16 @@
         <v>0.3672219028361679</v>
       </c>
       <c r="AC192">
-        <v>22.43013102792502</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AD192">
-        <v>0.0007205889618437196</v>
+        <v>0.0006462775676937876</v>
       </c>
       <c r="AE192">
-        <v>23.80605460309027</v>
+        <v>25.00923076923077</v>
       </c>
       <c r="AF192">
-        <v>0.01154821799229795</v>
+        <v>0.01099264150224363</v>
       </c>
     </row>
     <row r="193">
@@ -17794,16 +17794,16 @@
         <v>0.3454937071736343</v>
       </c>
       <c r="AC193">
-        <v>22.42834820161425</v>
+        <v>25.2225641025641</v>
       </c>
       <c r="AD193">
-        <v>0.0006780062397303903</v>
+        <v>0.0006028950889253348</v>
       </c>
       <c r="AE193">
-        <v>24.22812231676608</v>
+        <v>25.2225641025641</v>
       </c>
       <c r="AF193">
-        <v>0.01475318216771851</v>
+        <v>0.0141715132794401</v>
       </c>
     </row>
     <row r="194">
